--- a/experimental_data/Resultados/FR Abril 2021/FR5 SAC／FR5 SAC ABRIL 2021.xlsx
+++ b/experimental_data/Resultados/FR Abril 2021/FR5 SAC／FR5 SAC ABRIL 2021.xlsx
@@ -5,20 +5,18 @@
   <sheets>
     <sheet state="visible" name="datos_exp" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">datos_exp!$A$1:$T$45</definedName>
-  </definedNames>
+  <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgKQU0Vk7I60NrMcilqaNTMY06FfQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjBrhJtuRo3essLH9vzPngNlHk1sw=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="29">
   <si>
     <t>dia</t>
   </si>
@@ -114,7 +112,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -129,6 +127,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -144,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -163,13 +162,19 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2134,27 +2139,65 @@
     </row>
     <row r="26">
       <c r="A26" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
+        <v>4.0</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2.0210429E7</v>
+      </c>
+      <c r="C26" s="2">
+        <v>217.0</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0.5003240740740741</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.5419907407407407</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G26" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="L26" s="2">
+        <v>340.0</v>
+      </c>
+      <c r="M26" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="N26" s="2">
+        <v>1081.0</v>
+      </c>
+      <c r="O26" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P26" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="R26" s="2">
+        <v>33.0</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T26" s="2">
+        <v>1.0</v>
+      </c>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
@@ -2167,56 +2210,132 @@
       <c r="A27" s="1">
         <v>4.0</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
-      <c r="AA27" s="1"/>
+      <c r="B27" s="2">
+        <v>2.0210429E7</v>
+      </c>
+      <c r="C27" s="2">
+        <v>218.0</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0.5003240740740741</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0.5419907407407407</v>
+      </c>
+      <c r="F27" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="L27" s="2">
+        <v>733.0</v>
+      </c>
+      <c r="M27" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="N27" s="2">
+        <v>42.0</v>
+      </c>
+      <c r="O27" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P27" s="2">
+        <v>29.0</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="R27" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T27" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
     </row>
     <row r="28">
       <c r="A28" s="1">
         <v>4.0</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
+      <c r="B28" s="2">
+        <v>2.0210429E7</v>
+      </c>
+      <c r="C28" s="2">
+        <v>219.0</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0.5003240740740741</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0.5419907407407407</v>
+      </c>
+      <c r="F28" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="G28" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="L28" s="2">
+        <v>480.0</v>
+      </c>
+      <c r="M28" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="N28" s="2">
+        <v>414.0</v>
+      </c>
+      <c r="O28" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P28" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="R28" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="S28" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
@@ -2229,25 +2348,63 @@
       <c r="A29" s="1">
         <v>4.0</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
+      <c r="B29" s="2">
+        <v>2.0210429E7</v>
+      </c>
+      <c r="C29" s="2">
+        <v>220.0</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0.541863425925926</v>
+      </c>
+      <c r="F29" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="G29" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I29" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="L29" s="2">
+        <v>212.0</v>
+      </c>
+      <c r="M29" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="N29" s="2">
+        <v>1296.0</v>
+      </c>
+      <c r="O29" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P29" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="R29" s="2">
+        <v>37.0</v>
+      </c>
+      <c r="S29" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
@@ -2260,25 +2417,63 @@
       <c r="A30" s="1">
         <v>4.0</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
+      <c r="B30" s="2">
+        <v>2.0210429E7</v>
+      </c>
+      <c r="C30" s="2">
+        <v>221.0</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0.5630324074074075</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0.6046990740740741</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G30" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="L30" s="2">
+        <v>324.0</v>
+      </c>
+      <c r="M30" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="N30" s="2">
+        <v>93.0</v>
+      </c>
+      <c r="O30" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P30" s="2">
+        <v>29.0</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="R30" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T30" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
@@ -2287,60 +2482,136 @@
       <c r="Z30" s="3"/>
       <c r="AA30" s="3"/>
     </row>
-    <row r="31">
+    <row r="31" ht="15.0" customHeight="1">
       <c r="A31" s="1">
         <v>4.0</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="3"/>
-      <c r="V31" s="3"/>
-      <c r="W31" s="3"/>
-      <c r="X31" s="3"/>
-      <c r="Y31" s="3"/>
-      <c r="Z31" s="3"/>
-      <c r="AA31" s="3"/>
+      <c r="B31" s="2">
+        <v>2.0210429E7</v>
+      </c>
+      <c r="C31" s="2">
+        <v>222.0</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0.5630324074074075</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0.6046990740740741</v>
+      </c>
+      <c r="F31" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="G31" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="H31" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="I31" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="L31" s="2">
+        <v>309.0</v>
+      </c>
+      <c r="M31" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="N31" s="2">
+        <v>229.0</v>
+      </c>
+      <c r="O31" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P31" s="2">
+        <v>27.0</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="R31" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="S31" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="T31" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7"/>
     </row>
     <row r="32" ht="15.0" customHeight="1">
       <c r="A32" s="1">
         <v>4.0</v>
       </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
+      <c r="B32" s="2">
+        <v>2.0210429E7</v>
+      </c>
+      <c r="C32" s="2">
+        <v>223.0</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0.5630324074074075</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0.6046990740740741</v>
+      </c>
+      <c r="F32" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="G32" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="H32" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="I32" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="L32" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="M32" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="N32" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="O32" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P32" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="R32" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="S32" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="T32" s="6">
+        <v>0.0</v>
+      </c>
       <c r="U32" s="7"/>
       <c r="V32" s="7"/>
       <c r="W32" s="7"/>
@@ -2353,25 +2624,63 @@
       <c r="A33" s="1">
         <v>4.0</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
+      <c r="B33" s="2">
+        <v>2.0210429E7</v>
+      </c>
+      <c r="C33" s="2">
+        <v>224.0</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0.5627199074074074</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0.6044097222222222</v>
+      </c>
+      <c r="F33" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="G33" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I33" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K33" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="L33" s="2">
+        <v>496.0</v>
+      </c>
+      <c r="M33" s="2">
+        <v>21.0</v>
+      </c>
+      <c r="N33" s="2">
+        <v>107.0</v>
+      </c>
+      <c r="O33" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="P33" s="2">
+        <v>33.0</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="R33" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="S33" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="T33" s="6">
+        <v>0.0</v>
+      </c>
       <c r="U33" s="7"/>
       <c r="V33" s="7"/>
       <c r="W33" s="7"/>
@@ -2382,17 +2691,31 @@
     </row>
     <row r="34" ht="15.0" customHeight="1">
       <c r="A34" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
+        <v>5.0</v>
+      </c>
+      <c r="B34" s="2">
+        <v>2.021043E7</v>
+      </c>
+      <c r="C34" s="2">
+        <v>217.0</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G34" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I34" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -2401,9 +2724,9 @@
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="7"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="3"/>
       <c r="V34" s="7"/>
       <c r="W34" s="7"/>
       <c r="X34" s="7"/>
@@ -2411,19 +2734,33 @@
       <c r="Z34" s="7"/>
       <c r="AA34" s="7"/>
     </row>
-    <row r="35" ht="15.0" customHeight="1">
+    <row r="35">
       <c r="A35" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
+        <v>5.0</v>
+      </c>
+      <c r="B35" s="2">
+        <v>2.021043E7</v>
+      </c>
+      <c r="C35" s="2">
+        <v>218.0</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="G35" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="H35" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="I35" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -2432,9 +2769,9 @@
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="7"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="3"/>
       <c r="V35" s="7"/>
       <c r="W35" s="7"/>
       <c r="X35" s="7"/>
@@ -2442,19 +2779,33 @@
       <c r="Z35" s="7"/>
       <c r="AA35" s="7"/>
     </row>
-    <row r="36" ht="15.0" customHeight="1">
+    <row r="36">
       <c r="A36" s="1">
         <v>5.0</v>
       </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
+      <c r="B36" s="2">
+        <v>2.021043E7</v>
+      </c>
+      <c r="C36" s="2">
+        <v>219.0</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="G36" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="H36" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="I36" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -2477,15 +2828,29 @@
       <c r="A37" s="1">
         <v>5.0</v>
       </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
+      <c r="B37" s="2">
+        <v>2.021043E7</v>
+      </c>
+      <c r="C37" s="2">
+        <v>220.0</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="G37" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I37" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -2508,26 +2873,40 @@
       <c r="A38" s="1">
         <v>5.0</v>
       </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
+      <c r="B38" s="2">
+        <v>2.021043E7</v>
+      </c>
+      <c r="C38" s="2">
+        <v>221.0</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G38" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I38" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
-      <c r="U38" s="3"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
       <c r="V38" s="7"/>
       <c r="W38" s="7"/>
       <c r="X38" s="7"/>
@@ -2535,19 +2914,33 @@
       <c r="Z38" s="7"/>
       <c r="AA38" s="7"/>
     </row>
-    <row r="39">
+    <row r="39" ht="15.0" customHeight="1">
       <c r="A39" s="1">
         <v>5.0</v>
       </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
+      <c r="B39" s="2">
+        <v>2.021043E7</v>
+      </c>
+      <c r="C39" s="2">
+        <v>222.0</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="G39" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="H39" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="I39" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
@@ -2556,9 +2949,9 @@
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="3"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
       <c r="V39" s="7"/>
       <c r="W39" s="7"/>
       <c r="X39" s="7"/>
@@ -2566,23 +2959,37 @@
       <c r="Z39" s="7"/>
       <c r="AA39" s="7"/>
     </row>
-    <row r="40">
+    <row r="40" ht="15.0" customHeight="1">
       <c r="A40" s="1">
         <v>5.0</v>
       </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
+      <c r="B40" s="2">
+        <v>2.021043E7</v>
+      </c>
+      <c r="C40" s="2">
+        <v>223.0</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="G40" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="H40" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="I40" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
@@ -2601,15 +3008,29 @@
       <c r="A41" s="1">
         <v>5.0</v>
       </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
+      <c r="B41" s="2">
+        <v>2.021043E7</v>
+      </c>
+      <c r="C41" s="2">
+        <v>224.0</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="G41" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I41" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
@@ -2628,28 +3049,26 @@
       <c r="Z41" s="7"/>
       <c r="AA41" s="7"/>
     </row>
-    <row r="42" ht="15.0" customHeight="1">
-      <c r="A42" s="1">
-        <v>5.0</v>
-      </c>
+    <row r="42">
+      <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="1"/>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
       <c r="V42" s="7"/>
@@ -2659,28 +3078,26 @@
       <c r="Z42" s="7"/>
       <c r="AA42" s="7"/>
     </row>
-    <row r="43" ht="15.0" customHeight="1">
-      <c r="A43" s="1">
-        <v>5.0</v>
-      </c>
+    <row r="43">
+      <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
-      <c r="S43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="1"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
       <c r="V43" s="7"/>
@@ -2691,13 +3108,11 @@
       <c r="AA43" s="7"/>
     </row>
     <row r="44">
-      <c r="A44" s="1">
-        <v>5.0</v>
-      </c>
+      <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -2711,7 +3126,7 @@
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
       <c r="R44" s="7"/>
-      <c r="S44" s="7"/>
+      <c r="S44" s="1"/>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
       <c r="V44" s="7"/>
@@ -2722,13 +3137,11 @@
       <c r="AA44" s="7"/>
     </row>
     <row r="45">
-      <c r="A45" s="1">
-        <v>6.0</v>
-      </c>
+      <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -2742,7 +3155,7 @@
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
       <c r="R45" s="7"/>
-      <c r="S45" s="1"/>
+      <c r="S45" s="7"/>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
       <c r="V45" s="7"/>
@@ -2753,13 +3166,11 @@
       <c r="AA45" s="7"/>
     </row>
     <row r="46">
-      <c r="A46" s="1">
-        <v>6.0</v>
-      </c>
+      <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -2784,13 +3195,11 @@
       <c r="AA46" s="7"/>
     </row>
     <row r="47">
-      <c r="A47" s="1">
-        <v>6.0</v>
-      </c>
+      <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -2815,13 +3224,11 @@
       <c r="AA47" s="7"/>
     </row>
     <row r="48">
-      <c r="A48" s="1">
-        <v>6.0</v>
-      </c>
+      <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -2846,13 +3253,11 @@
       <c r="AA48" s="7"/>
     </row>
     <row r="49">
-      <c r="A49" s="1">
-        <v>6.0</v>
-      </c>
+      <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -2877,13 +3282,11 @@
       <c r="AA49" s="7"/>
     </row>
     <row r="50">
-      <c r="A50" s="1">
-        <v>6.0</v>
-      </c>
+      <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -2908,13 +3311,11 @@
       <c r="AA50" s="7"/>
     </row>
     <row r="51">
-      <c r="A51" s="1">
-        <v>6.0</v>
-      </c>
+      <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -2939,13 +3340,11 @@
       <c r="AA51" s="7"/>
     </row>
     <row r="52">
-      <c r="A52" s="1">
-        <v>6.0</v>
-      </c>
+      <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -2970,13 +3369,11 @@
       <c r="AA52" s="7"/>
     </row>
     <row r="53">
-      <c r="A53" s="1">
-        <v>6.0</v>
-      </c>
+      <c r="A53" s="10"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -3001,13 +3398,11 @@
       <c r="AA53" s="7"/>
     </row>
     <row r="54">
-      <c r="A54" s="7">
-        <v>7.0</v>
-      </c>
+      <c r="A54" s="10"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -3032,13 +3427,11 @@
       <c r="AA54" s="7"/>
     </row>
     <row r="55">
-      <c r="A55" s="7">
-        <v>7.0</v>
-      </c>
+      <c r="A55" s="10"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
@@ -3063,13 +3456,11 @@
       <c r="AA55" s="7"/>
     </row>
     <row r="56">
-      <c r="A56" s="7">
-        <v>7.0</v>
-      </c>
+      <c r="A56" s="10"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -3094,13 +3485,11 @@
       <c r="AA56" s="7"/>
     </row>
     <row r="57">
-      <c r="A57" s="7">
-        <v>7.0</v>
-      </c>
+      <c r="A57" s="10"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
@@ -3125,13 +3514,11 @@
       <c r="AA57" s="7"/>
     </row>
     <row r="58">
-      <c r="A58" s="7">
-        <v>7.0</v>
-      </c>
+      <c r="A58" s="10"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
@@ -3156,13 +3543,11 @@
       <c r="AA58" s="7"/>
     </row>
     <row r="59">
-      <c r="A59" s="7">
-        <v>7.0</v>
-      </c>
+      <c r="A59" s="10"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
@@ -3187,13 +3572,11 @@
       <c r="AA59" s="7"/>
     </row>
     <row r="60">
-      <c r="A60" s="7">
-        <v>7.0</v>
-      </c>
+      <c r="A60" s="10"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
@@ -3218,13 +3601,11 @@
       <c r="AA60" s="7"/>
     </row>
     <row r="61">
-      <c r="A61" s="7">
-        <v>7.0</v>
-      </c>
+      <c r="A61" s="10"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -3249,18 +3630,16 @@
       <c r="AA61" s="7"/>
     </row>
     <row r="62">
-      <c r="A62" s="7">
-        <v>7.0</v>
-      </c>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
       <c r="K62" s="7"/>
       <c r="L62" s="7"/>
       <c r="M62" s="7"/>
@@ -30394,37 +30773,7 @@
       <c r="Z997" s="7"/>
       <c r="AA997" s="7"/>
     </row>
-    <row r="998">
-      <c r="A998" s="7"/>
-      <c r="B998" s="7"/>
-      <c r="C998" s="7"/>
-      <c r="D998" s="7"/>
-      <c r="E998" s="7"/>
-      <c r="F998" s="7"/>
-      <c r="G998" s="7"/>
-      <c r="H998" s="7"/>
-      <c r="I998" s="7"/>
-      <c r="J998" s="7"/>
-      <c r="K998" s="7"/>
-      <c r="L998" s="7"/>
-      <c r="M998" s="7"/>
-      <c r="N998" s="7"/>
-      <c r="O998" s="7"/>
-      <c r="P998" s="7"/>
-      <c r="Q998" s="7"/>
-      <c r="R998" s="7"/>
-      <c r="S998" s="7"/>
-      <c r="T998" s="7"/>
-      <c r="U998" s="7"/>
-      <c r="V998" s="7"/>
-      <c r="W998" s="7"/>
-      <c r="X998" s="7"/>
-      <c r="Y998" s="7"/>
-      <c r="Z998" s="7"/>
-      <c r="AA998" s="7"/>
-    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$T$45"/>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
